--- a/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/egg_tube_data.xlsx
+++ b/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/egg_tube_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/Dispersal/Summer_2021/windaq_processing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E8189-1291-234C-A648-5B2AED5E74EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C1093D-62C9-4C4E-8E0E-3EE9F873955B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
   </bookViews>
   <sheets>
     <sheet name="egg_tube_data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="28">
   <si>
     <t>gen1_ID</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>8.30.21</t>
+  </si>
+  <si>
+    <t>8.31.21</t>
+  </si>
+  <si>
+    <t>9.2.21</t>
+  </si>
+  <si>
+    <t>9.1.21</t>
+  </si>
+  <si>
+    <t>9.9.21</t>
+  </si>
+  <si>
+    <t>9..21</t>
+  </si>
+  <si>
+    <t>9.8.21</t>
   </si>
 </sst>
 </file>
@@ -474,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360198D1-0CD9-2542-AA08-B793A290F6A1}">
   <dimension ref="A1:K601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D411" sqref="D411"/>
+    <sheetView tabSelected="1" topLeftCell="A544" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D548" sqref="D548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3275,6 +3293,9 @@
       <c r="C171" t="s">
         <v>15</v>
       </c>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
       <c r="G171" s="4" t="s">
         <v>19</v>
       </c>
@@ -3844,6 +3865,9 @@
       <c r="C208" t="s">
         <v>17</v>
       </c>
+      <c r="D208" t="s">
+        <v>23</v>
+      </c>
       <c r="G208" s="4" t="s">
         <v>18</v>
       </c>
@@ -3858,6 +3882,9 @@
       <c r="C209" t="s">
         <v>17</v>
       </c>
+      <c r="D209" t="s">
+        <v>22</v>
+      </c>
       <c r="G209" s="4" t="s">
         <v>18</v>
       </c>
@@ -3872,6 +3899,9 @@
       <c r="C210" t="s">
         <v>17</v>
       </c>
+      <c r="D210" t="s">
+        <v>23</v>
+      </c>
       <c r="G210" s="4" t="s">
         <v>18</v>
       </c>
@@ -3903,6 +3933,9 @@
       <c r="C212" t="s">
         <v>17</v>
       </c>
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
       <c r="G212" s="4" t="s">
         <v>18</v>
       </c>
@@ -3917,6 +3950,9 @@
       <c r="C213" t="s">
         <v>17</v>
       </c>
+      <c r="D213" t="s">
+        <v>22</v>
+      </c>
       <c r="G213" s="4" t="s">
         <v>18</v>
       </c>
@@ -3931,6 +3967,9 @@
       <c r="C214" t="s">
         <v>17</v>
       </c>
+      <c r="D214" t="s">
+        <v>23</v>
+      </c>
       <c r="G214" s="4" t="s">
         <v>18</v>
       </c>
@@ -3945,6 +3984,9 @@
       <c r="C215" t="s">
         <v>17</v>
       </c>
+      <c r="D215" t="s">
+        <v>23</v>
+      </c>
       <c r="G215" s="4" t="s">
         <v>18</v>
       </c>
@@ -3959,6 +4001,9 @@
       <c r="C216" t="s">
         <v>17</v>
       </c>
+      <c r="D216" t="s">
+        <v>23</v>
+      </c>
       <c r="G216" s="4" t="s">
         <v>18</v>
       </c>
@@ -4001,6 +4046,9 @@
       <c r="C219" t="s">
         <v>17</v>
       </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
       <c r="G219" s="4" t="s">
         <v>18</v>
       </c>
@@ -4015,6 +4063,9 @@
       <c r="C220" t="s">
         <v>17</v>
       </c>
+      <c r="D220" t="s">
+        <v>22</v>
+      </c>
       <c r="G220" s="4" t="s">
         <v>18</v>
       </c>
@@ -4071,6 +4122,9 @@
       <c r="C224" t="s">
         <v>17</v>
       </c>
+      <c r="D224" t="s">
+        <v>24</v>
+      </c>
       <c r="G224" s="4" t="s">
         <v>18</v>
       </c>
@@ -4099,6 +4153,9 @@
       <c r="C226" t="s">
         <v>17</v>
       </c>
+      <c r="D226" t="s">
+        <v>24</v>
+      </c>
       <c r="G226" s="4" t="s">
         <v>18</v>
       </c>
@@ -4127,6 +4184,9 @@
       <c r="C228" t="s">
         <v>17</v>
       </c>
+      <c r="D228" t="s">
+        <v>23</v>
+      </c>
       <c r="G228" s="4" t="s">
         <v>18</v>
       </c>
@@ -4141,6 +4201,9 @@
       <c r="C229" t="s">
         <v>17</v>
       </c>
+      <c r="D229" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G229" s="4" t="s">
         <v>18</v>
       </c>
@@ -4183,6 +4246,9 @@
       <c r="C232" t="s">
         <v>17</v>
       </c>
+      <c r="D232" t="s">
+        <v>22</v>
+      </c>
       <c r="G232" s="4" t="s">
         <v>18</v>
       </c>
@@ -4211,6 +4277,9 @@
       <c r="C234" t="s">
         <v>17</v>
       </c>
+      <c r="D234" t="s">
+        <v>24</v>
+      </c>
       <c r="G234" s="4" t="s">
         <v>18</v>
       </c>
@@ -4225,6 +4294,9 @@
       <c r="C235" t="s">
         <v>17</v>
       </c>
+      <c r="D235" t="s">
+        <v>22</v>
+      </c>
       <c r="G235" s="4" t="s">
         <v>18</v>
       </c>
@@ -4256,6 +4328,9 @@
       <c r="C237" t="s">
         <v>17</v>
       </c>
+      <c r="D237" t="s">
+        <v>24</v>
+      </c>
       <c r="G237" s="4" t="s">
         <v>18</v>
       </c>
@@ -4371,6 +4446,9 @@
       <c r="C245" t="s">
         <v>17</v>
       </c>
+      <c r="D245" t="s">
+        <v>23</v>
+      </c>
       <c r="G245" s="4" t="s">
         <v>18</v>
       </c>
@@ -4461,6 +4539,9 @@
       <c r="C251" t="s">
         <v>17</v>
       </c>
+      <c r="D251" t="s">
+        <v>25</v>
+      </c>
       <c r="G251" s="4" t="s">
         <v>18</v>
       </c>
@@ -4534,6 +4615,9 @@
       <c r="C256" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D256" t="s">
+        <v>24</v>
+      </c>
       <c r="G256" s="4" t="s">
         <v>18</v>
       </c>
@@ -4565,6 +4649,9 @@
       <c r="C258" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D258" t="s">
+        <v>26</v>
+      </c>
       <c r="G258" s="4" t="s">
         <v>18</v>
       </c>
@@ -4593,6 +4680,9 @@
       <c r="C260" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D260" t="s">
+        <v>22</v>
+      </c>
       <c r="G260" s="4" t="s">
         <v>18</v>
       </c>
@@ -4638,6 +4728,9 @@
       <c r="C263" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D263" t="s">
+        <v>23</v>
+      </c>
       <c r="G263" s="4" t="s">
         <v>18</v>
       </c>
@@ -4745,6 +4838,9 @@
       <c r="C270" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D270" t="s">
+        <v>23</v>
+      </c>
       <c r="G270" s="4" t="s">
         <v>18</v>
       </c>
@@ -4759,6 +4855,9 @@
       <c r="C271" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D271" t="s">
+        <v>25</v>
+      </c>
       <c r="G271" s="4" t="s">
         <v>18</v>
       </c>
@@ -4787,6 +4886,9 @@
       <c r="C273" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D273" t="s">
+        <v>23</v>
+      </c>
       <c r="G273" s="4" t="s">
         <v>18</v>
       </c>
@@ -4801,6 +4903,9 @@
       <c r="C274" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D274" t="s">
+        <v>22</v>
+      </c>
       <c r="G274" s="4" t="s">
         <v>18</v>
       </c>
@@ -4815,6 +4920,9 @@
       <c r="C275" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D275" t="s">
+        <v>23</v>
+      </c>
       <c r="G275" s="4" t="s">
         <v>18</v>
       </c>
@@ -4829,6 +4937,9 @@
       <c r="C276" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D276" t="s">
+        <v>23</v>
+      </c>
       <c r="G276" s="4" t="s">
         <v>18</v>
       </c>
@@ -4930,6 +5041,9 @@
       <c r="C283" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D283" t="s">
+        <v>22</v>
+      </c>
       <c r="G283" s="4" t="s">
         <v>18</v>
       </c>
@@ -4961,6 +5075,9 @@
       <c r="C285" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D285" t="s">
+        <v>22</v>
+      </c>
       <c r="G285" s="4" t="s">
         <v>18</v>
       </c>
@@ -4975,6 +5092,9 @@
       <c r="C286" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D286" t="s">
+        <v>24</v>
+      </c>
       <c r="G286" s="4" t="s">
         <v>18</v>
       </c>
@@ -4989,6 +5109,9 @@
       <c r="C287" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D287" t="s">
+        <v>24</v>
+      </c>
       <c r="G287" s="4" t="s">
         <v>18</v>
       </c>
@@ -5003,6 +5126,9 @@
       <c r="C288" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
       <c r="G288" s="4" t="s">
         <v>18</v>
       </c>
@@ -5017,6 +5143,9 @@
       <c r="C289" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D289" t="s">
+        <v>23</v>
+      </c>
       <c r="G289" s="4" t="s">
         <v>18</v>
       </c>
@@ -5048,6 +5177,9 @@
       <c r="C291" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D291" t="s">
+        <v>23</v>
+      </c>
       <c r="G291" s="4" t="s">
         <v>18</v>
       </c>
@@ -5062,6 +5194,9 @@
       <c r="C292" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D292" t="s">
+        <v>22</v>
+      </c>
       <c r="G292" s="4" t="s">
         <v>18</v>
       </c>
@@ -5110,6 +5245,9 @@
       <c r="C295" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D295" t="s">
+        <v>22</v>
+      </c>
       <c r="G295" s="4" t="s">
         <v>18</v>
       </c>
@@ -5186,6 +5324,9 @@
       <c r="C300" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D300" t="s">
+        <v>24</v>
+      </c>
       <c r="G300" s="4" t="s">
         <v>18</v>
       </c>
@@ -5231,6 +5372,9 @@
       <c r="C303" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D303" t="s">
+        <v>22</v>
+      </c>
       <c r="G303" s="4" t="s">
         <v>18</v>
       </c>
@@ -5245,6 +5389,9 @@
       <c r="C304" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D304" t="s">
+        <v>23</v>
+      </c>
       <c r="G304" s="4" t="s">
         <v>18</v>
       </c>
@@ -5304,6 +5451,9 @@
       <c r="C308" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D308" t="s">
+        <v>24</v>
+      </c>
       <c r="G308" s="4" t="s">
         <v>18</v>
       </c>
@@ -5318,6 +5468,9 @@
       <c r="C309" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D309" t="s">
+        <v>23</v>
+      </c>
       <c r="G309" s="4" t="s">
         <v>18</v>
       </c>
@@ -5346,6 +5499,9 @@
       <c r="C311" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D311" t="s">
+        <v>25</v>
+      </c>
       <c r="G311" s="4" t="s">
         <v>18</v>
       </c>
@@ -5360,6 +5516,9 @@
       <c r="C312" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D312" t="s">
+        <v>25</v>
+      </c>
       <c r="G312" s="4" t="s">
         <v>18</v>
       </c>
@@ -5374,6 +5533,9 @@
       <c r="C313" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D313" t="s">
+        <v>23</v>
+      </c>
       <c r="G313" s="4" t="s">
         <v>18</v>
       </c>
@@ -5419,6 +5581,9 @@
       <c r="C316" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D316" t="s">
+        <v>24</v>
+      </c>
       <c r="G316" s="4" t="s">
         <v>18</v>
       </c>
@@ -5433,6 +5598,9 @@
       <c r="C317" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D317" t="s">
+        <v>23</v>
+      </c>
       <c r="G317" s="4" t="s">
         <v>18</v>
       </c>
@@ -5478,6 +5646,9 @@
       <c r="C320" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D320" t="s">
+        <v>22</v>
+      </c>
       <c r="G320" s="4" t="s">
         <v>18</v>
       </c>
@@ -5523,6 +5694,9 @@
       <c r="C323" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D323" t="s">
+        <v>23</v>
+      </c>
       <c r="G323" s="4" t="s">
         <v>18</v>
       </c>
@@ -5565,6 +5739,9 @@
       <c r="C326" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D326" t="s">
+        <v>25</v>
+      </c>
       <c r="G326" s="4" t="s">
         <v>18</v>
       </c>
@@ -5621,6 +5798,9 @@
       <c r="C330" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D330" t="s">
+        <v>25</v>
+      </c>
       <c r="G330" s="4" t="s">
         <v>18</v>
       </c>
@@ -5666,6 +5846,9 @@
       <c r="C333" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D333" t="s">
+        <v>23</v>
+      </c>
       <c r="G333" s="4" t="s">
         <v>18</v>
       </c>
@@ -5708,6 +5891,9 @@
       <c r="C336" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D336" t="s">
+        <v>23</v>
+      </c>
       <c r="G336" s="4" t="s">
         <v>18</v>
       </c>
@@ -5722,6 +5908,9 @@
       <c r="C337" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D337" t="s">
+        <v>25</v>
+      </c>
       <c r="G337" s="4" t="s">
         <v>18</v>
       </c>
@@ -5750,6 +5939,9 @@
       <c r="C339" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="D339" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G339" s="3" t="s">
         <v>18</v>
       </c>
@@ -5764,6 +5956,9 @@
       <c r="C340" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D340" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G340" s="4" t="s">
         <v>18</v>
       </c>
@@ -5806,6 +6001,9 @@
       <c r="C343" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D343" t="s">
+        <v>23</v>
+      </c>
       <c r="G343" s="4" t="s">
         <v>18</v>
       </c>
@@ -5820,6 +6018,9 @@
       <c r="C344" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D344" t="s">
+        <v>23</v>
+      </c>
       <c r="G344" s="4" t="s">
         <v>18</v>
       </c>
@@ -5834,6 +6035,9 @@
       <c r="C345" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D345" t="s">
+        <v>22</v>
+      </c>
       <c r="G345" s="4" t="s">
         <v>18</v>
       </c>
@@ -5862,6 +6066,9 @@
       <c r="C347" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D347" t="s">
+        <v>24</v>
+      </c>
       <c r="G347" s="4" t="s">
         <v>18</v>
       </c>
@@ -5876,6 +6083,9 @@
       <c r="C348" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D348" t="s">
+        <v>25</v>
+      </c>
       <c r="G348" s="4" t="s">
         <v>18</v>
       </c>
@@ -5918,6 +6128,9 @@
       <c r="C351" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D351" t="s">
+        <v>25</v>
+      </c>
       <c r="G351" s="4" t="s">
         <v>18</v>
       </c>
@@ -5946,6 +6159,9 @@
       <c r="C353" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D353" t="s">
+        <v>22</v>
+      </c>
       <c r="G353" s="4" t="s">
         <v>18</v>
       </c>
@@ -5960,6 +6176,9 @@
       <c r="C354" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D354" t="s">
+        <v>24</v>
+      </c>
       <c r="G354" s="4" t="s">
         <v>18</v>
       </c>
@@ -5974,6 +6193,9 @@
       <c r="C355" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D355" t="s">
+        <v>23</v>
+      </c>
       <c r="G355" s="4" t="s">
         <v>18</v>
       </c>
@@ -6002,6 +6224,9 @@
       <c r="C357" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D357" t="s">
+        <v>22</v>
+      </c>
       <c r="G357" s="4" t="s">
         <v>18</v>
       </c>
@@ -6044,6 +6269,9 @@
       <c r="C360" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D360" t="s">
+        <v>24</v>
+      </c>
       <c r="G360" s="4" t="s">
         <v>18</v>
       </c>
@@ -6058,6 +6286,9 @@
       <c r="C361" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D361" t="s">
+        <v>22</v>
+      </c>
       <c r="G361" s="4" t="s">
         <v>18</v>
       </c>
@@ -6086,6 +6317,9 @@
       <c r="C363" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D363" t="s">
+        <v>22</v>
+      </c>
       <c r="G363" s="4" t="s">
         <v>18</v>
       </c>
@@ -6114,6 +6348,9 @@
       <c r="C365" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D365" t="s">
+        <v>25</v>
+      </c>
       <c r="G365" s="4" t="s">
         <v>18</v>
       </c>
@@ -6128,6 +6365,9 @@
       <c r="C366" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D366" t="s">
+        <v>25</v>
+      </c>
       <c r="G366" s="4" t="s">
         <v>18</v>
       </c>
@@ -6142,6 +6382,9 @@
       <c r="C367" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D367" t="s">
+        <v>25</v>
+      </c>
       <c r="G367" s="4" t="s">
         <v>18</v>
       </c>
@@ -6170,6 +6413,9 @@
       <c r="C369" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D369" t="s">
+        <v>22</v>
+      </c>
       <c r="G369" s="4" t="s">
         <v>18</v>
       </c>
@@ -6198,6 +6444,9 @@
       <c r="C371" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D371" t="s">
+        <v>23</v>
+      </c>
       <c r="G371" s="4" t="s">
         <v>18</v>
       </c>
@@ -6226,6 +6475,9 @@
       <c r="C373" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D373" t="s">
+        <v>25</v>
+      </c>
       <c r="G373" s="4" t="s">
         <v>18</v>
       </c>
@@ -6240,6 +6492,9 @@
       <c r="C374" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D374" t="s">
+        <v>22</v>
+      </c>
       <c r="G374" s="4" t="s">
         <v>18</v>
       </c>
@@ -6282,6 +6537,9 @@
       <c r="C377" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="D377" t="s">
+        <v>25</v>
+      </c>
       <c r="G377" s="4" t="s">
         <v>18</v>
       </c>
@@ -6310,6 +6568,9 @@
       <c r="C379" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="D379" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G379" s="3" t="s">
         <v>18</v>
       </c>
@@ -6355,6 +6616,9 @@
       <c r="C382" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D382" t="s">
+        <v>25</v>
+      </c>
       <c r="G382" s="4" t="s">
         <v>18</v>
       </c>
@@ -6386,6 +6650,9 @@
       <c r="C384" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D384" t="s">
+        <v>25</v>
+      </c>
       <c r="G384" s="4" t="s">
         <v>18</v>
       </c>
@@ -6400,6 +6667,9 @@
       <c r="C385" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D385" t="s">
+        <v>25</v>
+      </c>
       <c r="G385" s="4" t="s">
         <v>18</v>
       </c>
@@ -6414,6 +6684,9 @@
       <c r="C386" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D386" t="s">
+        <v>24</v>
+      </c>
       <c r="G386" s="4" t="s">
         <v>18</v>
       </c>
@@ -6445,6 +6718,9 @@
       <c r="C388" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D388" t="s">
+        <v>25</v>
+      </c>
       <c r="G388" s="4" t="s">
         <v>18</v>
       </c>
@@ -6546,6 +6822,9 @@
       <c r="C395" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D395" t="s">
+        <v>23</v>
+      </c>
       <c r="G395" s="4" t="s">
         <v>19</v>
       </c>
@@ -6560,6 +6839,9 @@
       <c r="C396" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D396" t="s">
+        <v>22</v>
+      </c>
       <c r="G396" s="4" t="s">
         <v>19</v>
       </c>
@@ -6588,6 +6870,9 @@
       <c r="C398" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D398" t="s">
+        <v>22</v>
+      </c>
       <c r="G398" s="4" t="s">
         <v>19</v>
       </c>
@@ -6602,6 +6887,9 @@
       <c r="C399" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D399" t="s">
+        <v>23</v>
+      </c>
       <c r="G399" s="4" t="s">
         <v>19</v>
       </c>
@@ -6630,6 +6918,9 @@
       <c r="C401" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D401" t="s">
+        <v>22</v>
+      </c>
       <c r="G401" s="4" t="s">
         <v>19</v>
       </c>
@@ -6675,6 +6966,9 @@
       <c r="C404" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D404" t="s">
+        <v>22</v>
+      </c>
       <c r="G404" s="4" t="s">
         <v>19</v>
       </c>
@@ -6706,6 +7000,9 @@
       <c r="C406" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D406" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G406" s="4" t="s">
         <v>19</v>
       </c>
@@ -6720,6 +7017,9 @@
       <c r="C407" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D407" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G407" s="4" t="s">
         <v>19</v>
       </c>
@@ -6734,6 +7034,9 @@
       <c r="C408" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D408" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G408" s="4" t="s">
         <v>19</v>
       </c>
@@ -6748,6 +7051,9 @@
       <c r="C409" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D409" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G409" s="4" t="s">
         <v>19</v>
       </c>
@@ -6793,6 +7099,9 @@
       <c r="C412" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D412" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G412" s="4" t="s">
         <v>19</v>
       </c>
@@ -6807,6 +7116,9 @@
       <c r="C413" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D413" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G413" s="4" t="s">
         <v>19</v>
       </c>
@@ -6849,6 +7161,9 @@
       <c r="C416" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D416" t="s">
+        <v>25</v>
+      </c>
       <c r="G416" s="4" t="s">
         <v>19</v>
       </c>
@@ -6863,6 +7178,9 @@
       <c r="C417" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D417" t="s">
+        <v>24</v>
+      </c>
       <c r="G417" s="4" t="s">
         <v>19</v>
       </c>
@@ -6877,6 +7195,9 @@
       <c r="C418" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D418" t="s">
+        <v>23</v>
+      </c>
       <c r="G418" s="4" t="s">
         <v>19</v>
       </c>
@@ -6905,6 +7226,9 @@
       <c r="C420" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D420" t="s">
+        <v>24</v>
+      </c>
       <c r="G420" s="4" t="s">
         <v>19</v>
       </c>
@@ -6933,6 +7257,9 @@
       <c r="C422" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D422" t="s">
+        <v>25</v>
+      </c>
       <c r="G422" s="4" t="s">
         <v>19</v>
       </c>
@@ -6961,6 +7288,9 @@
       <c r="C424" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D424" t="s">
+        <v>24</v>
+      </c>
       <c r="G424" s="4" t="s">
         <v>19</v>
       </c>
@@ -6975,6 +7305,9 @@
       <c r="C425" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D425" t="s">
+        <v>24</v>
+      </c>
       <c r="G425" s="4" t="s">
         <v>19</v>
       </c>
@@ -6989,6 +7322,9 @@
       <c r="C426" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D426" t="s">
+        <v>25</v>
+      </c>
       <c r="G426" s="4" t="s">
         <v>19</v>
       </c>
@@ -7003,6 +7339,9 @@
       <c r="C427" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D427" t="s">
+        <v>24</v>
+      </c>
       <c r="G427" s="4" t="s">
         <v>19</v>
       </c>
@@ -7031,6 +7370,9 @@
       <c r="C429" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D429" t="s">
+        <v>24</v>
+      </c>
       <c r="G429" s="4" t="s">
         <v>19</v>
       </c>
@@ -7045,6 +7387,9 @@
       <c r="C430" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D430" t="s">
+        <v>23</v>
+      </c>
       <c r="G430" s="4" t="s">
         <v>19</v>
       </c>
@@ -7059,6 +7404,9 @@
       <c r="C431" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D431" t="s">
+        <v>25</v>
+      </c>
       <c r="G431" s="4" t="s">
         <v>19</v>
       </c>
@@ -7087,6 +7435,9 @@
       <c r="C433" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D433" t="s">
+        <v>25</v>
+      </c>
       <c r="G433" s="4" t="s">
         <v>19</v>
       </c>
@@ -7095,713 +7446,2165 @@
       <c r="A434">
         <v>1433</v>
       </c>
+      <c r="B434" s="4">
+        <v>329</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D434" t="s">
+        <v>22</v>
+      </c>
+      <c r="G434" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>1434</v>
       </c>
+      <c r="B435" s="4">
+        <v>329</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D435" t="s">
+        <v>25</v>
+      </c>
+      <c r="G435" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>1435</v>
       </c>
+      <c r="B436" s="4">
+        <v>329</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D436" t="s">
+        <v>23</v>
+      </c>
+      <c r="G436" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>1436</v>
       </c>
+      <c r="B437" s="4">
+        <v>329</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D437" t="s">
+        <v>25</v>
+      </c>
+      <c r="G437" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>1437</v>
       </c>
+      <c r="B438" s="4">
+        <v>329</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D438" t="s">
+        <v>23</v>
+      </c>
+      <c r="G438" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>1438</v>
       </c>
+      <c r="B439" s="4">
+        <v>329</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D439" t="s">
+        <v>25</v>
+      </c>
+      <c r="G439" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>1439</v>
       </c>
+      <c r="B440" s="4">
+        <v>329</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D440" t="s">
+        <v>25</v>
+      </c>
+      <c r="G440" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>1440</v>
       </c>
+      <c r="B441" s="4">
+        <v>329</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G441" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>1441</v>
       </c>
+      <c r="B442" s="4">
+        <v>329</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D442" t="s">
+        <v>25</v>
+      </c>
+      <c r="G442" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>1442</v>
       </c>
+      <c r="B443" s="4">
+        <v>329</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D443" t="s">
+        <v>25</v>
+      </c>
+      <c r="G443" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>1443</v>
       </c>
+      <c r="B444" s="4">
+        <v>329</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D444" t="s">
+        <v>25</v>
+      </c>
+      <c r="G444" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1444</v>
       </c>
+      <c r="B445" s="4">
+        <v>329</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G445" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>1445</v>
       </c>
+      <c r="B446" s="4">
+        <v>329</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G446" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>1446</v>
       </c>
+      <c r="B447" s="4">
+        <v>329</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G447" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>1447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B448" s="4">
+        <v>329</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G448" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B449" s="4">
+        <v>329</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G449" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>1449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B450" s="4">
+        <v>329</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G450" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>1450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B451" s="4">
+        <v>329</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G451" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B452" s="4">
+        <v>329</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D452" t="s">
+        <v>24</v>
+      </c>
+      <c r="G452" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>1452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B453" s="4">
+        <v>329</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D453" t="s">
+        <v>23</v>
+      </c>
+      <c r="G453" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>1453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B454" s="4">
+        <v>329</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G454" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>1454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B455" s="4">
+        <v>329</v>
+      </c>
+      <c r="C455" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G455" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>1455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B456" s="4">
+        <v>329</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G456" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>1456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B457" s="4">
+        <v>329</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G457" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>1457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B458" s="4">
+        <v>329</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D458" t="s">
+        <v>25</v>
+      </c>
+      <c r="G458" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B459" s="4">
+        <v>329</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D459" t="s">
+        <v>25</v>
+      </c>
+      <c r="G459" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>1459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B460" s="4">
+        <v>329</v>
+      </c>
+      <c r="C460" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D460" t="s">
+        <v>25</v>
+      </c>
+      <c r="G460" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B461" s="4">
+        <v>329</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G461" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B462" s="4">
+        <v>329</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D462" t="s">
+        <v>25</v>
+      </c>
+      <c r="G462" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B463" s="4">
+        <v>329</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G463" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B464" s="4">
+        <v>329</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G464" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>1464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B465" s="4">
+        <v>329</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D465" t="s">
+        <v>25</v>
+      </c>
+      <c r="G465" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>1465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B466" s="4">
+        <v>329</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G466" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>1466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B467" s="4">
+        <v>329</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G467" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>1467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B468" s="4">
+        <v>329</v>
+      </c>
+      <c r="C468" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G468" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>1468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B469" s="4">
+        <v>329</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D469" t="s">
+        <v>25</v>
+      </c>
+      <c r="G469" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>1469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B470" s="4">
+        <v>329</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D470" t="s">
+        <v>25</v>
+      </c>
+      <c r="G470" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>1470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B471" s="4">
+        <v>329</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G471" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>1471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B472" s="4">
+        <v>329</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G472" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>1472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B473" s="4">
+        <v>329</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G473" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>1473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B474" s="4">
+        <v>329</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G474" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>1474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B475" s="4">
+        <v>329</v>
+      </c>
+      <c r="C475" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G475" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>1475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B476" s="4">
+        <v>329</v>
+      </c>
+      <c r="C476" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G476" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>1476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B477" s="4">
+        <v>329</v>
+      </c>
+      <c r="C477" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G477" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>1477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B478" s="4">
+        <v>329</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G478" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>1478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B479" s="4">
+        <v>329</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D479" t="s">
+        <v>22</v>
+      </c>
+      <c r="G479" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>1479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B480" s="4">
+        <v>329</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G480" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>1480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B481" s="4">
+        <v>329</v>
+      </c>
+      <c r="C481" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G481" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B482" s="4">
+        <v>329</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G482" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B483" s="4">
+        <v>329</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G483" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>1483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B484" s="4">
+        <v>329</v>
+      </c>
+      <c r="C484" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G484" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>1484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B485" s="4">
+        <v>329</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G485" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>1485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B486" s="4">
+        <v>329</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G486" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>1486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B487" s="4">
+        <v>329</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G487" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>1487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B488" s="4">
+        <v>329</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G488" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>1488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B489" s="4">
+        <v>329</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G489" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>1489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B490" s="4">
+        <v>329</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D490" t="s">
+        <v>25</v>
+      </c>
+      <c r="G490" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>1490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B491" s="4">
+        <v>329</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D491" t="s">
+        <v>25</v>
+      </c>
+      <c r="G491" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>1491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493">
+      <c r="B492" s="4">
+        <v>329</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G492" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="3">
         <v>1492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B493" s="5">
+        <v>329</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G493" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>1493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B494" s="4">
+        <v>9</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G494" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>1494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B495" s="4">
+        <v>9</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G495" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>1495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B496" s="4">
+        <v>9</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D496" t="s">
+        <v>25</v>
+      </c>
+      <c r="G496" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>1496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B497" s="4">
+        <v>9</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G497" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>1497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B498" s="4">
+        <v>9</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G498" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>1498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B499" s="4">
+        <v>9</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G499" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>1499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B500" s="4">
+        <v>9</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G500" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>1500</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B501" s="4">
+        <v>9</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G501" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1501</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B502" s="4">
+        <v>9</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G502" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>1502</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B503" s="4">
+        <v>9</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G503" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>1503</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B504" s="4">
+        <v>9</v>
+      </c>
+      <c r="C504" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G504" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>1504</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B505" s="4">
+        <v>9</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G505" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>1505</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B506" s="4">
+        <v>9</v>
+      </c>
+      <c r="C506" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G506" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>1506</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B507" s="4">
+        <v>9</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G507" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>1507</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B508" s="4">
+        <v>9</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G508" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>1508</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B509" s="4">
+        <v>9</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G509" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>1509</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511">
+      <c r="B510" s="4">
+        <v>9</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G510" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="3">
         <v>1510</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B511" s="5">
+        <v>9</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>1511</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B512" s="4">
+        <v>329</v>
+      </c>
+      <c r="C512" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D512" t="s">
+        <v>25</v>
+      </c>
+      <c r="G512" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>1512</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B513" s="4">
+        <v>329</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G513" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>1513</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B514" s="4">
+        <v>329</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D514" t="s">
+        <v>25</v>
+      </c>
+      <c r="G514" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>1514</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B515" s="4">
+        <v>329</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D515" t="s">
+        <v>25</v>
+      </c>
+      <c r="G515" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>1515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B516" s="4">
+        <v>329</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D516" t="s">
+        <v>25</v>
+      </c>
+      <c r="G516" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>1516</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B517" s="4">
+        <v>329</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D517" t="s">
+        <v>25</v>
+      </c>
+      <c r="G517" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1517</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B518" s="4">
+        <v>329</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D518" t="s">
+        <v>25</v>
+      </c>
+      <c r="G518" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1518</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B519" s="4">
+        <v>329</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D519" t="s">
+        <v>25</v>
+      </c>
+      <c r="G519" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>1519</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B520" s="4">
+        <v>329</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G520" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>1520</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B521" s="4">
+        <v>329</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G521" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1521</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B522" s="4">
+        <v>329</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D522" t="s">
+        <v>25</v>
+      </c>
+      <c r="G522" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>1522</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B523" s="4">
+        <v>329</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G523" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>1523</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B524" s="4">
+        <v>329</v>
+      </c>
+      <c r="C524" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D524" t="s">
+        <v>25</v>
+      </c>
+      <c r="G524" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>1524</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B525" s="4">
+        <v>329</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D525" t="s">
+        <v>25</v>
+      </c>
+      <c r="G525" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>1525</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B526" s="4">
+        <v>329</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D526" t="s">
+        <v>25</v>
+      </c>
+      <c r="G526" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>1526</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B527" s="4">
+        <v>329</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D527" t="s">
+        <v>25</v>
+      </c>
+      <c r="G527" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>1527</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B528" s="4">
+        <v>329</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D528" t="s">
+        <v>25</v>
+      </c>
+      <c r="G528" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>1528</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B529" s="4">
+        <v>329</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D529" t="s">
+        <v>25</v>
+      </c>
+      <c r="G529" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>1529</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B530" s="4">
+        <v>329</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D530" t="s">
+        <v>25</v>
+      </c>
+      <c r="G530" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>1530</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B531" s="4">
+        <v>329</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D531" t="s">
+        <v>25</v>
+      </c>
+      <c r="G531" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>1531</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B532" s="4">
+        <v>329</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D532" t="s">
+        <v>25</v>
+      </c>
+      <c r="G532" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>1532</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B533" s="4">
+        <v>329</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D533" t="s">
+        <v>25</v>
+      </c>
+      <c r="G533" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>1533</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B534" s="4">
+        <v>329</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G534" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>1534</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B535" s="4">
+        <v>329</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D535" t="s">
+        <v>25</v>
+      </c>
+      <c r="G535" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>1535</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B536" s="4">
+        <v>329</v>
+      </c>
+      <c r="C536" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D536" t="s">
+        <v>25</v>
+      </c>
+      <c r="G536" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>1536</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B537" s="4">
+        <v>329</v>
+      </c>
+      <c r="C537" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D537" t="s">
+        <v>25</v>
+      </c>
+      <c r="G537" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>1537</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B538" s="4">
+        <v>329</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G538" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>1538</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B539" s="4">
+        <v>329</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G539" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>1539</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541">
+      <c r="B540" s="4">
+        <v>329</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G540" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="3">
         <v>1540</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B541" s="5">
+        <v>329</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G541" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>1541</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B542" s="4">
+        <v>114</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D542" t="s">
+        <v>27</v>
+      </c>
+      <c r="G542" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>1542</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B543" s="4">
+        <v>114</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D543" t="s">
+        <v>27</v>
+      </c>
+      <c r="G543" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>1543</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B544" s="4">
+        <v>114</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D544" t="s">
+        <v>27</v>
+      </c>
+      <c r="G544" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>1544</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546">
+      <c r="B545" s="4">
+        <v>114</v>
+      </c>
+      <c r="C545" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D545" t="s">
+        <v>27</v>
+      </c>
+      <c r="G545" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="3">
         <v>1545</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B546" s="5">
+        <v>114</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G546" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>1546</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B547" s="4">
+        <v>329</v>
+      </c>
+      <c r="C547" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D547" t="s">
+        <v>27</v>
+      </c>
+      <c r="G547" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>1547</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B548" s="4">
+        <v>329</v>
+      </c>
+      <c r="C548" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D548" t="s">
+        <v>27</v>
+      </c>
+      <c r="G548" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>1548</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B549" s="4">
+        <v>329</v>
+      </c>
+      <c r="C549" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D549" t="s">
+        <v>27</v>
+      </c>
+      <c r="G549" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>1549</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B550" s="4">
+        <v>329</v>
+      </c>
+      <c r="C550" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D550" t="s">
+        <v>27</v>
+      </c>
+      <c r="G550" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>1550</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B551" s="4">
+        <v>329</v>
+      </c>
+      <c r="C551" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D551" t="s">
+        <v>27</v>
+      </c>
+      <c r="G551" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>1551</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B552" s="4">
+        <v>329</v>
+      </c>
+      <c r="C552" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D552" t="s">
+        <v>27</v>
+      </c>
+      <c r="G552" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>1552</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B553" s="4">
+        <v>329</v>
+      </c>
+      <c r="C553" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D553" t="s">
+        <v>27</v>
+      </c>
+      <c r="G553" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>1553</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B554" s="4">
+        <v>329</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D554" t="s">
+        <v>27</v>
+      </c>
+      <c r="G554" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>1554</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B555" s="4">
+        <v>329</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D555" t="s">
+        <v>27</v>
+      </c>
+      <c r="G555" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>1555</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A557">
+      <c r="B556" s="4">
+        <v>329</v>
+      </c>
+      <c r="C556" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D556" t="s">
+        <v>27</v>
+      </c>
+      <c r="G556" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="3">
         <v>1556</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B557" s="5">
+        <v>329</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>1557</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B558" s="4">
+        <v>16</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D558" t="s">
+        <v>27</v>
+      </c>
+      <c r="G558" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>1558</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B559" s="4">
+        <v>16</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D559" t="s">
+        <v>27</v>
+      </c>
+      <c r="G559" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>1559</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B560" s="4">
+        <v>16</v>
+      </c>
+      <c r="C560" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D560" t="s">
+        <v>27</v>
+      </c>
+      <c r="G560" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>1560</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B561" s="4">
+        <v>16</v>
+      </c>
+      <c r="C561" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D561" t="s">
+        <v>27</v>
+      </c>
+      <c r="G561" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>1561</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B562" s="4">
+        <v>16</v>
+      </c>
+      <c r="C562" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D562" t="s">
+        <v>27</v>
+      </c>
+      <c r="G562" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>1562</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B563" s="4">
+        <v>16</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D563" t="s">
+        <v>27</v>
+      </c>
+      <c r="G563" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>1563</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B564" s="4">
+        <v>16</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D564" t="s">
+        <v>27</v>
+      </c>
+      <c r="G564" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>1564</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B565" s="4">
+        <v>16</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D565" t="s">
+        <v>27</v>
+      </c>
+      <c r="G565" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>1565</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B566" s="4">
+        <v>16</v>
+      </c>
+      <c r="C566" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D566" t="s">
+        <v>27</v>
+      </c>
+      <c r="G566" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>1566</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B567" s="4">
+        <v>16</v>
+      </c>
+      <c r="C567" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D567" t="s">
+        <v>27</v>
+      </c>
+      <c r="G567" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>1567</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B568" s="4">
+        <v>16</v>
+      </c>
+      <c r="C568" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D568" t="s">
+        <v>27</v>
+      </c>
+      <c r="G568" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>1568</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B569" s="4">
+        <v>16</v>
+      </c>
+      <c r="C569" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D569" t="s">
+        <v>27</v>
+      </c>
+      <c r="G569" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>1569</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B570" s="4">
+        <v>16</v>
+      </c>
+      <c r="C570" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D570" t="s">
+        <v>27</v>
+      </c>
+      <c r="G570" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>1570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>1571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>1572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>1573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>1574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>1575</v>
       </c>
